--- a/Data/Processed/Angiosperms/missing_powo_ipni/Rapateaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Rapateaceae.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 30: 275. 1932 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 30: 275. 1932</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -895,7 +895,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Inst. Biol. Veg. 4(1): 1. 1938 [Jun 1938] </t>
+          <t>Arq. Inst. Biol. Veg. 4(1): 1. 1938 [Jun 1938]</t>
         </is>
       </c>
       <c r="J9" t="b">
